--- a/Das Genderneutrale Adressbuch (LGBT)/bin/Vorganliste.xlsx
+++ b/Das Genderneutrale Adressbuch (LGBT)/bin/Vorganliste.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Dokumente\GitHub\GenderNeutralAdressBook\Das Genderneutrale Adressbuch (LGBT)\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myste\source\repos\GenderNeutralAdressBook\Das Genderneutrale Adressbuch (LGBT)\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E3E46A-EA35-4999-A93A-FA0BAD82BCF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55ACA84-A0FD-46EE-9431-AA604B9600FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="2940" windowWidth="14400" windowHeight="11835" xr2:uid="{DA0DF6CF-51A6-4CCF-88CF-B0092EA7BF55}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{DA0DF6CF-51A6-4CCF-88CF-B0092EA7BF55}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Vorgangs Nr</t>
   </si>
@@ -44,12 +45,6 @@
     <t>Dauer in stunden</t>
   </si>
   <si>
-    <t>Plannung</t>
-  </si>
-  <si>
-    <t>Grund konstruckt</t>
-  </si>
-  <si>
     <t>Git Hub Install</t>
   </si>
   <si>
@@ -81,6 +76,15 @@
   </si>
   <si>
     <t>Testen</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Grundkonstrukt</t>
+  </si>
+  <si>
+    <t>Summe Stunden:</t>
   </si>
 </sst>
 </file>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45C9073-71D4-45F1-B747-1EED065EB3E8}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +459,7 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,37 +473,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f>SUM(D2:D100)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -508,12 +519,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -522,12 +533,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -536,12 +547,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -550,12 +561,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -564,12 +575,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -578,12 +589,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -592,12 +603,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -606,12 +617,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -620,12 +631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -634,12 +645,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>12</v>
